--- a/Array.xlsx
+++ b/Array.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>&lt;20,000</t>
   </si>
@@ -156,6 +156,33 @@
   </si>
   <si>
     <t>Array</t>
+  </si>
+  <si>
+    <t>&lt;25,000</t>
+  </si>
+  <si>
+    <t>&lt;35,000</t>
+  </si>
+  <si>
+    <t>&lt;45,000</t>
+  </si>
+  <si>
+    <t>&lt;55,000</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>&lt;200</t>
+  </si>
+  <si>
+    <t>&lt;400</t>
+  </si>
+  <si>
+    <t>&lt;25</t>
+  </si>
+  <si>
+    <t>&lt;35</t>
   </si>
 </sst>
 </file>
@@ -512,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,10 +576,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -568,257 +592,332 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>19</v>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="1"/>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
+      <c r="B24" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>30</v>
+      <c r="B25" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>29</v>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="4"/>
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>33</v>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>34</v>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Array.xlsx
+++ b/Array.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>&lt;20,000</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>&lt;35</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>hybrid</t>
   </si>
 </sst>
 </file>
@@ -539,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D44"/>
+  <dimension ref="A2:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,9 +737,6 @@
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -742,6 +745,9 @@
       <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C24" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -755,8 +761,8 @@
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
+      <c r="B26" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,35 +770,35 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>49</v>
+      <c r="B29" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>24</v>
+      <c r="B30" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -800,38 +806,35 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>27</v>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>30</v>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -839,35 +842,34 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>31</v>
+      <c r="B36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -875,23 +877,27 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>36</v>
+      <c r="B40" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>37</v>
+      <c r="B41" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,10 +905,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,7 +913,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,6 +921,25 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Array.xlsx
+++ b/Array.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Array" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>&lt;20,000</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Color</t>
   </si>
   <si>
-    <t>electric</t>
-  </si>
-  <si>
     <t>diesel</t>
   </si>
   <si>
@@ -189,6 +186,18 @@
   </si>
   <si>
     <t>hybrid</t>
+  </si>
+  <si>
+    <t>&lt;45</t>
+  </si>
+  <si>
+    <t>&lt;50</t>
+  </si>
+  <si>
+    <t>&lt;55</t>
+  </si>
+  <si>
+    <t>&lt;60</t>
   </si>
 </sst>
 </file>
@@ -545,20 +554,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D46"/>
+  <dimension ref="A2:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -574,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -609,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -659,16 +668,13 @@
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -678,40 +684,40 @@
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>10</v>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>14</v>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -719,42 +725,42 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>11</v>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>20</v>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>48</v>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,71 +768,70 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>19</v>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="2"/>
+      <c r="B28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>54</v>
+      <c r="B29" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>22</v>
+      <c r="B30" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>49</v>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="1"/>
+      <c r="B32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>50</v>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,62 +839,62 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>30</v>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>29</v>
+      <c r="B37" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>31</v>
+      <c r="B38" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="4"/>
+      <c r="B39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>33</v>
+      <c r="B40" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -897,34 +902,35 @@
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>37</v>
+      <c r="B43" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>41</v>
+      <c r="B44" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,7 +938,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,7 +946,34 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
